--- a/SurgeonSkill.xlsx
+++ b/SurgeonSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EF5B1-9225-46BA-ADBC-5184C5662214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9947B3-F02C-43A5-8035-5F48FAB8E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{A8B94CEB-D6CF-4F9C-8F55-918BC1D251A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8B94CEB-D6CF-4F9C-8F55-918BC1D251A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92712720-438B-482A-A3D2-BD25A7DF8520}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,18 +459,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,15 +507,15 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -529,359 +529,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>202</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>202</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>205</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>205</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>206</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>206</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>207</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>208</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>208</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>209</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>209</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>209</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>209</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>210</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>210</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>210</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>211</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>211</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>212</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>212</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>212</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>214</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>214</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>215</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>215</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>215</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>215</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>213</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>213</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>213</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>213</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>216</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>216</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>216</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>216</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>217</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>217</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>217</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>218</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>218</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>218</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>219</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>219</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>219</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B55">
+    <sortCondition ref="A2:A55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
